--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_summer.xlsx
@@ -425,9 +425,6 @@
       <c r="D2">
         <v>2009</v>
       </c>
-      <c r="E2">
-        <v>3.054599347420139</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -436,14 +433,8 @@
       <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-3.872359107260159</v>
-      </c>
       <c r="D3">
         <v>2010</v>
-      </c>
-      <c r="E3">
-        <v>0.6832201941375571</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,14 +444,8 @@
       <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>4.530477057343663</v>
-      </c>
       <c r="D4">
         <v>2011</v>
-      </c>
-      <c r="E4">
-        <v>6.198184853554634</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,14 +455,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>6.833902841285977</v>
-      </c>
       <c r="D5">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>6.977693666529272</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -487,14 +466,8 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>4.166536506645224</v>
-      </c>
       <c r="D6">
         <v>2013</v>
-      </c>
-      <c r="E6">
-        <v>4.580469755461802</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +478,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>2.669880057548091</v>
+        <v>1.785377844167058</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>5.800035788110924</v>
+        <v>2.333075171696652</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +495,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.50293301232252</v>
+        <v>5.477304442308206</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>6.575740619085968</v>
+        <v>4.052456259163839</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +512,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.829481320500406</v>
+        <v>4.666532690711245</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>5.637047132432382</v>
+        <v>3.659383764712709</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +529,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>5.100281927437122</v>
+        <v>5.266214435142658</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>4.889825623401545</v>
+        <v>4.181342739750682</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +546,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>5.161358932333737</v>
+        <v>4.811826107786477</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>5.261684900217256</v>
+        <v>4.131858242365549</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>5.903240711112856</v>
+        <v>5.91185619417105</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>4.751894620017949</v>
+        <v>4.365509285986957</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +580,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.937486382457855</v>
+        <v>5.114185474093769</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>3.718398465425499</v>
+        <v>5.472991335528654</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-4.007669511185885</v>
+        <v>2.167530781895133</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>4.894792862113562</v>
+        <v>2.573593955528963</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.488248808663228</v>
+        <v>0.5766229317536675</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>8.604279583650509</v>
+        <v>4.059584075094214</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +631,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.395586567457175</v>
+        <v>2.288114387968587</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.99549438235165</v>
+        <v>3.463553906111505</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +648,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-2.158581765635204</v>
+        <v>-2.013802094285932</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>3.750193614401542</v>
+        <v>2.374210810973465</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +665,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.4507701807948239</v>
+        <v>-0.5865622195987186</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>3.710266040086396</v>
+        <v>2.431929210693595</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +682,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5756371110930525</v>
+        <v>0.7174582534189566</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.5339625944420057</v>
+        <v>2.061048937680932</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_summer.xlsx
@@ -444,8 +444,14 @@
       <c r="B4">
         <v>2010</v>
       </c>
+      <c r="C4">
+        <v>3.184002331674129</v>
+      </c>
       <c r="D4">
         <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>6.704254199558113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -455,8 +461,14 @@
       <c r="B5">
         <v>2011</v>
       </c>
+      <c r="C5">
+        <v>8.626810748872327</v>
+      </c>
       <c r="D5">
         <v>2012</v>
+      </c>
+      <c r="E5">
+        <v>4.739201070534826</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -466,8 +478,14 @@
       <c r="B6">
         <v>2012</v>
       </c>
+      <c r="C6">
+        <v>3.449685446853534</v>
+      </c>
       <c r="D6">
         <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>3.26507595662513</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -478,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.785377844167058</v>
+        <v>-1.480934717826909</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.333075171696652</v>
+        <v>0.7772706050320544</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -495,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.477304442308206</v>
+        <v>5.427992542801308</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>4.052456259163839</v>
+        <v>4.945882057432871</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.666532690711245</v>
+        <v>4.970284184513551</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>3.659383764712709</v>
+        <v>4.488174889976171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -529,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>5.266214435142658</v>
+        <v>4.039484738713828</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>4.181342739750682</v>
+        <v>4.214976960249173</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -546,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.811826107786477</v>
+        <v>4.589070866863865</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>4.131858242365549</v>
+        <v>3.829046580278361</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -563,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>5.91185619417105</v>
+        <v>3.625873842174787</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>4.365509285986957</v>
+        <v>2.330842103296149</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -580,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>5.114185474093769</v>
+        <v>3.500574054404404</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>5.472991335528654</v>
+        <v>3.21661481720994</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -597,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.167530781895133</v>
+        <v>-0.9913189363815245</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.573593955528963</v>
+        <v>1.183532150252908</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -614,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>0.5766229317536675</v>
+        <v>4.507091823899212</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>4.059584075094214</v>
+        <v>5.429743376942153</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -631,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.288114387968587</v>
+        <v>8.053468068361846</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.463553906111505</v>
+        <v>3.974997080343634</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -648,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-2.013802094285932</v>
+        <v>0.2714278794373248</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>2.374210810973465</v>
+        <v>2.460471645027118</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -665,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.5865622195987186</v>
+        <v>-2.107534670984712</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>2.431929210693595</v>
+        <v>2.747596279389564</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -682,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.7174582534189566</v>
+        <v>1.552685227480533</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>2.061048937680932</v>
+        <v>2.496145622272206</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_summer.xlsx
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>4.507091823899212</v>
+        <v>3.422728847591983</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>5.429743376942153</v>
+        <v>4.159769430572657</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>8.053468068361846</v>
+        <v>7.61654136842036</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.974997080343634</v>
+        <v>3.875399348087094</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.2714278794373248</v>
+        <v>0.7753820538246803</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>2.460471645027118</v>
+        <v>2.989319424861114</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-2.107534670984712</v>
+        <v>-2.17916173717011</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>2.747596279389564</v>
+        <v>2.618356875591199</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>1.552685227480533</v>
+        <v>1.847721869714491</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>2.496145622272206</v>
+        <v>2.81747164028272</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_summer.xlsx
@@ -445,13 +445,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>3.184002331674129</v>
+        <v>3.184002331674152</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>6.704254199558113</v>
+        <v>6.704254199558157</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,13 +462,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>8.626810748872327</v>
+        <v>8.626810748872305</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>4.739201070534826</v>
+        <v>4.739201070534849</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,13 +479,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>3.449685446853534</v>
+        <v>3.449685446853556</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>3.26507595662513</v>
+        <v>3.265075956625108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,7 +496,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-1.480934717826909</v>
+        <v>-1.480934717826898</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -513,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.427992542801308</v>
+        <v>5.427992542801285</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>4.945882057432871</v>
+        <v>4.945882057432893</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -530,7 +530,7 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.970284184513551</v>
+        <v>4.970284184513529</v>
       </c>
       <c r="D9">
         <v>2016</v>
@@ -547,7 +547,7 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>4.039484738713828</v>
+        <v>4.039484738713806</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -581,7 +581,7 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.625873842174787</v>
+        <v>3.625873842174765</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -598,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.500574054404404</v>
+        <v>3.500574054404426</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>3.21661481720994</v>
+        <v>3.216614817209962</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -615,7 +615,7 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.9913189363815245</v>
+        <v>-0.9913189363815467</v>
       </c>
       <c r="D14">
         <v>2021</v>
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>3.422728847591983</v>
+        <v>3.42272884759196</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>4.159769430572657</v>
+        <v>4.159769430572635</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,7 +649,7 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>7.61654136842036</v>
+        <v>7.616541368420382</v>
       </c>
       <c r="D16">
         <v>2023</v>
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-2.17916173717011</v>
+        <v>-2.179161737170099</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>2.618356875591199</v>
+        <v>2.618356875591177</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -706,7 +706,7 @@
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>2.81747164028272</v>
+        <v>2.817471640282698</v>
       </c>
     </row>
   </sheetData>
